--- a/data/feed_list.xlsx
+++ b/data/feed_list.xlsx
@@ -20,24 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">EX_co2(e)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">EX_glc(e)</t>
   </si>
   <si>
-    <t xml:space="preserve">EX_h(e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_h2o(e)</t>
-  </si>
-  <si>
     <t xml:space="preserve">EX_nh4(e)</t>
   </si>
   <si>
     <t xml:space="preserve">EX_o2(e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_pi(e)</t>
   </si>
 </sst>
 </file>
@@ -47,11 +41,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,6 +68,11 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -129,16 +129,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,10 +231,10 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -248,22 +252,12 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
